--- a/storage/files/dam/generate/IEX/ratesheetgraph/2018/09_Sep/19/mhindra.xlsx
+++ b/storage/files/dam/generate/IEX/ratesheetgraph/2018/09_Sep/19/mhindra.xlsx
@@ -128,6 +128,9 @@
     <t xml:space="preserve"> 20:45</t>
   </si>
   <si>
+    <t>Time Slots</t>
+  </si>
+  <si>
     <t xml:space="preserve">20:15 </t>
   </si>
   <si>
@@ -204,9 +207,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 17:30</t>
-  </si>
-  <si>
-    <t>Time Slots</t>
   </si>
   <si>
     <t xml:space="preserve">17:00 </t>
@@ -1106,289 +1106,289 @@
                   <c:v>6400.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3159.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6400.89</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>3092.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>7100.47</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>3156.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>7000.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>3073.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>8050.06</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>3098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3310.67</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>8050.15</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>3499.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>8250.42</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>8250.299999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>3504.61</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>8100.11</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>4250.41</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>8100.23</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>4250.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>8350.120000000001</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
+                  <c:v>4312.68</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>8350.15</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
+                  <c:v>4500.97</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>8800.32</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="25">
+                  <c:v>4910.14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5310.47</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>9000.440000000001</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="28">
+                  <c:v>5700.48</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>9250.639999999999</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="30">
                   <c:v>9943.559999999999</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="31">
+                  <c:v>5999.11</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>11000.41</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
+                  <c:v>5999.73</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>10393.42</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="35">
+                  <c:v>5999.84</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>10050.31</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
+                  <c:v>7583.65</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>10050.04</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
+                  <c:v>6607.32</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>9150.65</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
+                  <c:v>5627.33</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5313.92</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>8400.5</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="44">
+                  <c:v>4354.22</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>8000.67</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="46">
                   <c:v>5989.74</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="47">
+                  <c:v>3569.89</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>6200.48</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="49">
+                  <c:v>3069.7</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>5069.99</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="51">
+                  <c:v>3034.3</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>5102.41</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="53">
+                  <c:v>2929.7</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>5500.22</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="55">
+                  <c:v>2929.93</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>5639.21</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="57">
+                  <c:v>2903.48</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2889.76</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>5989.21</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="60">
+                  <c:v>2629.92</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>6469.01</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="62">
                   <c:v>6599.3</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="63">
+                  <c:v>2889.42</c:v>
+                </c:pt>
+                <c:pt idx="64">
                   <c:v>8000.41</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="65">
+                  <c:v>2800.59</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>8550.440000000001</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="67">
+                  <c:v>2873.69</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>8550.639999999999</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="69">
+                  <c:v>2781.08</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>8550.469999999999</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="71">
+                  <c:v>2899.48</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>7510.98</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="73">
+                  <c:v>2781.03</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2733.98</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>7000.76</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="76">
+                  <c:v>2710.56</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>5989.67</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="78">
                   <c:v>5500.76</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="79">
+                  <c:v>2609.73</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>7000.1</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="81">
+                  <c:v>2609.98</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>6599.96</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="83">
+                  <c:v>2609.64</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>5989.48</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="85">
+                  <c:v>2609.6</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>7000.06</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="87">
+                  <c:v>2651.61</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>7600.84</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="89">
+                  <c:v>2724.65</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2711.51</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>8730.82</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="92">
+                  <c:v>2721.37</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>8730.209999999999</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="94">
                   <c:v>8730.5</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>7510.69</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7510.64</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7200.18</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7100.84</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8068.81</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6599.62</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6469.17</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5500.63</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5500.22</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5500.05</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5469.28</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5102.16</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5269.16</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5102.25</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5102</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5094.09</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>5989.66</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6469.42</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6599.21</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5500.95</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6989.32</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6599.46</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5102.57</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5000.45</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>5000.09</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5000.68</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>5500.02</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5200.91</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4841.61</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>4841.2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>4148.66</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>4087.83</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>4149.48</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>4157.11</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4202.81</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>4250.73</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>4749.85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>4841.25</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4841.87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5300.35</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5300.45</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>5301</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>6599.57</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>7000.11</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>6599.51</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>7000.54</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>7000.74</c:v>
-                </c:pt>
                 <c:pt idx="95">
-                  <c:v>7000.78</c:v>
+                  <c:v>2781.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1821,7 +1821,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="J2" sqref="J2"/>
@@ -1886,13 +1886,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>6400.89</v>
+        <v>3159.86</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1900,13 +1900,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>7100.47</v>
+        <v>6400.89</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1914,13 +1914,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>7000.3</v>
+        <v>3092.89</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1928,13 +1928,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>8050.06</v>
+        <v>7100.47</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1942,13 +1942,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>8050.15</v>
+        <v>3156.2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1956,13 +1956,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>8250.42</v>
+        <v>7000.3</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1970,13 +1970,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>8250.299999999999</v>
+        <v>3073.06</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1984,13 +1984,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>8100.11</v>
+        <v>8050.06</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1998,13 +1998,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>8100.23</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2012,13 +2012,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>8350.120000000001</v>
+        <v>3310.67</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2026,13 +2026,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>8350.15</v>
+        <v>8050.15</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2040,13 +2040,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>8800.32</v>
+        <v>3499.04</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2054,13 +2054,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>9000.440000000001</v>
+        <v>8250.42</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2068,13 +2068,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>9250.639999999999</v>
+        <v>8250.299999999999</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2082,13 +2082,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>9943.559999999999</v>
+        <v>3504.61</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2096,13 +2096,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>11000.41</v>
+        <v>8100.11</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2110,13 +2110,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>10393.42</v>
+        <v>4250.41</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2124,13 +2124,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>10050.31</v>
+        <v>8100.23</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2138,13 +2138,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D21">
-        <v>10050.04</v>
+        <v>4250.7</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2152,13 +2152,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>9150.65</v>
+        <v>8350.120000000001</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2166,13 +2166,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>8400.5</v>
+        <v>4312.68</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2180,13 +2180,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D24">
-        <v>8000.67</v>
+        <v>8350.15</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2194,13 +2194,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>5989.74</v>
+        <v>4500.97</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2208,13 +2208,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>6200.48</v>
+        <v>8800.32</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2222,13 +2222,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>5069.99</v>
+        <v>4910.14</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2236,16 +2236,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>5102.41</v>
+        <v>5310.47</v>
       </c>
       <c r="K28" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2253,13 +2253,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>5500.22</v>
+        <v>9000.440000000001</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2267,13 +2267,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D30">
-        <v>5639.21</v>
+        <v>5700.48</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2281,13 +2281,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D31">
-        <v>5989.21</v>
+        <v>9250.639999999999</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2295,13 +2295,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D32">
-        <v>6469.01</v>
+        <v>9943.559999999999</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2309,13 +2309,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>6599.3</v>
+        <v>5999.11</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2323,13 +2323,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="D34">
-        <v>8000.41</v>
+        <v>11000.41</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2337,13 +2337,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D35">
-        <v>8550.440000000001</v>
+        <v>5999.73</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2351,13 +2351,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>8550.639999999999</v>
+        <v>10393.42</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2365,13 +2365,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D37">
-        <v>8550.469999999999</v>
+        <v>5999.84</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2379,13 +2379,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="D38">
-        <v>7510.98</v>
+        <v>10050.31</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2393,13 +2393,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D39">
-        <v>7000.76</v>
+        <v>7583.65</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2407,13 +2407,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="D40">
-        <v>5989.67</v>
+        <v>10050.04</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2421,13 +2421,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="D41">
-        <v>5500.76</v>
+        <v>6607.32</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2435,13 +2435,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="D42">
-        <v>7000.1</v>
+        <v>9150.65</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2449,13 +2449,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D43">
-        <v>6599.96</v>
+        <v>5627.33</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2463,13 +2463,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D44">
-        <v>5989.48</v>
+        <v>5313.92</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2477,13 +2477,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="D45">
-        <v>7000.06</v>
+        <v>8400.5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2491,13 +2491,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="D46">
-        <v>7600.84</v>
+        <v>4354.22</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2505,13 +2505,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="D47">
-        <v>8730.82</v>
+        <v>8000.67</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2519,13 +2519,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="D48">
-        <v>8730.209999999999</v>
+        <v>5989.74</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2533,13 +2533,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="D49">
-        <v>8730.5</v>
+        <v>3569.89</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2547,13 +2547,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="D50">
-        <v>7510.69</v>
+        <v>6200.48</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2561,13 +2561,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="D51">
-        <v>7510.64</v>
+        <v>3069.7</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2575,13 +2575,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="D52">
-        <v>7200.18</v>
+        <v>5069.99</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2589,13 +2589,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="D53">
-        <v>7100.84</v>
+        <v>3034.3</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2603,13 +2603,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="D54">
-        <v>8068.81</v>
+        <v>5102.41</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2617,13 +2617,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="D55">
-        <v>6599.62</v>
+        <v>2929.7</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2631,13 +2631,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="D56">
-        <v>6469.17</v>
+        <v>5500.22</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2645,13 +2645,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="D57">
-        <v>5500.63</v>
+        <v>2929.93</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2659,13 +2659,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="D58">
-        <v>5500.22</v>
+        <v>5639.21</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2673,13 +2673,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="D59">
-        <v>5500.05</v>
+        <v>2903.48</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2687,13 +2687,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="D60">
-        <v>5469.28</v>
+        <v>2889.76</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2701,13 +2701,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="D61">
-        <v>5102.16</v>
+        <v>5989.21</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2715,13 +2715,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="D62">
-        <v>5269.16</v>
+        <v>2629.92</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2729,13 +2729,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="D63">
-        <v>5102.25</v>
+        <v>6469.01</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2743,13 +2743,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="D64">
-        <v>5102</v>
+        <v>6599.3</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2757,13 +2757,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="D65">
-        <v>5094.09</v>
+        <v>2889.42</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2771,13 +2771,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="D66">
-        <v>5989.66</v>
+        <v>8000.41</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2785,13 +2785,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="D67">
-        <v>6469.42</v>
+        <v>2800.59</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2799,13 +2799,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="D68">
-        <v>6599.21</v>
+        <v>8550.440000000001</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2813,13 +2813,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="D69">
-        <v>5500.95</v>
+        <v>2873.69</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2827,13 +2827,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="D70">
-        <v>6989.32</v>
+        <v>8550.639999999999</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2841,13 +2841,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="D71">
-        <v>6599.46</v>
+        <v>2781.08</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2855,13 +2855,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="D72">
-        <v>5102.57</v>
+        <v>8550.469999999999</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2869,13 +2869,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="D73">
-        <v>5000.45</v>
+        <v>2899.48</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2883,13 +2883,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="D74">
-        <v>5000.09</v>
+        <v>7510.98</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2897,13 +2897,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="D75">
-        <v>5000.68</v>
+        <v>2781.03</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2911,13 +2911,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="D76">
-        <v>5500.02</v>
+        <v>2733.98</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2925,13 +2925,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="D77">
-        <v>5200.91</v>
+        <v>7000.76</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2939,13 +2939,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="D78">
-        <v>4841.61</v>
+        <v>2710.56</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2953,13 +2953,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="D79">
-        <v>4841.2</v>
+        <v>5989.67</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2967,13 +2967,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="D80">
-        <v>4148.66</v>
+        <v>5500.76</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2981,13 +2981,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="D81">
-        <v>4087.83</v>
+        <v>2609.73</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2995,13 +2995,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="D82">
-        <v>4149.48</v>
+        <v>7000.1</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3009,13 +3009,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="D83">
-        <v>4157.11</v>
+        <v>2609.98</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3023,13 +3023,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="D84">
-        <v>4202.81</v>
+        <v>6599.96</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3037,13 +3037,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="D85">
-        <v>4250.73</v>
+        <v>2609.64</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3051,13 +3051,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="C86" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="D86">
-        <v>4749.85</v>
+        <v>5989.48</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3065,13 +3065,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="D87">
-        <v>4841.25</v>
+        <v>2609.6</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3079,13 +3079,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="C88" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="D88">
-        <v>4841.87</v>
+        <v>7000.06</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3093,13 +3093,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="D89">
-        <v>5300.35</v>
+        <v>2651.61</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3107,13 +3107,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="D90">
-        <v>5300.45</v>
+        <v>7600.84</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3121,13 +3121,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="D91">
-        <v>5301</v>
+        <v>2724.65</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3135,13 +3135,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="D92">
-        <v>6599.57</v>
+        <v>2711.51</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3149,13 +3149,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="D93">
-        <v>7000.11</v>
+        <v>8730.82</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3163,13 +3163,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="C94" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="D94">
-        <v>6599.51</v>
+        <v>2721.37</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3177,13 +3177,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="D95">
-        <v>7000.54</v>
+        <v>8730.209999999999</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3191,26 +3191,1370 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" t="s">
+        <v>105</v>
+      </c>
+      <c r="D96">
+        <v>8730.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D97">
+        <v>2781.49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" t="s">
+        <v>107</v>
+      </c>
+      <c r="D98">
+        <v>7510.69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" t="s">
+        <v>107</v>
+      </c>
+      <c r="D99">
+        <v>2781.44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" t="s">
+        <v>109</v>
+      </c>
+      <c r="D100">
+        <v>7510.64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101">
+        <v>2781.92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D102">
+        <v>7200.18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103">
+        <v>2781.57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104">
+        <v>7100.84</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C105" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105">
+        <v>2781.08</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" t="s">
+        <v>115</v>
+      </c>
+      <c r="D106">
+        <v>8068.81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C107" t="s">
+        <v>115</v>
+      </c>
+      <c r="D107">
+        <v>2781.41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" t="s">
+        <v>117</v>
+      </c>
+      <c r="D108">
+        <v>2710.96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" t="s">
+        <v>117</v>
+      </c>
+      <c r="D109">
+        <v>6599.62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" t="s">
+        <v>119</v>
+      </c>
+      <c r="D110">
+        <v>2710.28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C111" t="s">
+        <v>119</v>
+      </c>
+      <c r="D111">
+        <v>6469.17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112">
+        <v>5500.63</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" t="s">
+        <v>121</v>
+      </c>
+      <c r="D113">
+        <v>2651.16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" t="s">
+        <v>123</v>
+      </c>
+      <c r="D114">
+        <v>5500.22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" t="s">
+        <v>123</v>
+      </c>
+      <c r="D115">
+        <v>2710.57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C116" t="s">
+        <v>125</v>
+      </c>
+      <c r="D116">
+        <v>5500.05</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117">
+        <v>2781.15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" t="s">
+        <v>127</v>
+      </c>
+      <c r="D118">
+        <v>5469.28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119">
+        <v>2781.1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" t="s">
+        <v>129</v>
+      </c>
+      <c r="D120">
+        <v>5102.16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" t="s">
+        <v>129</v>
+      </c>
+      <c r="D121">
+        <v>2889.01</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" t="s">
+        <v>131</v>
+      </c>
+      <c r="D122">
+        <v>5269.16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" t="s">
+        <v>131</v>
+      </c>
+      <c r="D123">
+        <v>2929.19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D124">
+        <v>2889.82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C125" t="s">
+        <v>133</v>
+      </c>
+      <c r="D125">
+        <v>5102.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C126" t="s">
+        <v>135</v>
+      </c>
+      <c r="D126">
+        <v>2781.55</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" t="s">
+        <v>135</v>
+      </c>
+      <c r="D127">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C128" t="s">
+        <v>137</v>
+      </c>
+      <c r="D128">
+        <v>5094.09</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C129" t="s">
+        <v>137</v>
+      </c>
+      <c r="D129">
+        <v>2929.43</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C130" t="s">
+        <v>139</v>
+      </c>
+      <c r="D130">
+        <v>5989.66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C131" t="s">
+        <v>139</v>
+      </c>
+      <c r="D131">
+        <v>2929.09</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C132" t="s">
+        <v>141</v>
+      </c>
+      <c r="D132">
+        <v>6469.42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C133" t="s">
+        <v>141</v>
+      </c>
+      <c r="D133">
+        <v>3044.36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C134" t="s">
+        <v>143</v>
+      </c>
+      <c r="D134">
+        <v>6599.21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C135" t="s">
+        <v>143</v>
+      </c>
+      <c r="D135">
+        <v>3079.53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C136" t="s">
+        <v>145</v>
+      </c>
+      <c r="D136">
+        <v>5500.95</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" t="s">
+        <v>145</v>
+      </c>
+      <c r="D137">
+        <v>3159.21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" t="s">
+        <v>147</v>
+      </c>
+      <c r="D138">
+        <v>6989.32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" t="s">
+        <v>147</v>
+      </c>
+      <c r="D139">
+        <v>3065.22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C140" t="s">
+        <v>149</v>
+      </c>
+      <c r="D140">
+        <v>3000.33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C141" t="s">
+        <v>149</v>
+      </c>
+      <c r="D141">
+        <v>6599.46</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C142" t="s">
+        <v>151</v>
+      </c>
+      <c r="D142">
+        <v>2781.05</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C143" t="s">
+        <v>151</v>
+      </c>
+      <c r="D143">
+        <v>5102.57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C144" t="s">
+        <v>153</v>
+      </c>
+      <c r="D144">
+        <v>2569.41</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C145" t="s">
+        <v>153</v>
+      </c>
+      <c r="D145">
+        <v>5000.45</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C146" t="s">
+        <v>155</v>
+      </c>
+      <c r="D146">
+        <v>2712.15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C147" t="s">
+        <v>155</v>
+      </c>
+      <c r="D147">
+        <v>5000.09</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C148" t="s">
+        <v>157</v>
+      </c>
+      <c r="D148">
+        <v>2681.41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C149" t="s">
+        <v>157</v>
+      </c>
+      <c r="D149">
+        <v>5000.68</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C150" t="s">
+        <v>159</v>
+      </c>
+      <c r="D150">
+        <v>2705.71</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C151" t="s">
+        <v>159</v>
+      </c>
+      <c r="D151">
+        <v>5500.02</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C152" t="s">
+        <v>161</v>
+      </c>
+      <c r="D152">
+        <v>2701.96</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" t="s">
+        <v>161</v>
+      </c>
+      <c r="D153">
+        <v>5200.91</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C154" t="s">
+        <v>163</v>
+      </c>
+      <c r="D154">
+        <v>2572.65</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C155" t="s">
+        <v>163</v>
+      </c>
+      <c r="D155">
+        <v>4841.61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C156" t="s">
+        <v>165</v>
+      </c>
+      <c r="D156">
+        <v>2569.31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C157" t="s">
+        <v>165</v>
+      </c>
+      <c r="D157">
+        <v>4841.2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C158" t="s">
+        <v>167</v>
+      </c>
+      <c r="D158">
+        <v>2525.9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C159" t="s">
+        <v>167</v>
+      </c>
+      <c r="D159">
+        <v>4148.66</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C160" t="s">
+        <v>169</v>
+      </c>
+      <c r="D160">
+        <v>2439.46</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C161" t="s">
+        <v>169</v>
+      </c>
+      <c r="D161">
+        <v>4087.83</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C162" t="s">
+        <v>171</v>
+      </c>
+      <c r="D162">
+        <v>2572.11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C163" t="s">
+        <v>171</v>
+      </c>
+      <c r="D163">
+        <v>4149.48</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C164" t="s">
+        <v>173</v>
+      </c>
+      <c r="D164">
+        <v>2572.2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C165" t="s">
+        <v>173</v>
+      </c>
+      <c r="D165">
+        <v>4157.11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C166" t="s">
+        <v>175</v>
+      </c>
+      <c r="D166">
+        <v>2659.36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C167" t="s">
+        <v>175</v>
+      </c>
+      <c r="D167">
+        <v>4202.81</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C168" t="s">
+        <v>177</v>
+      </c>
+      <c r="D168">
+        <v>2700.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" t="s">
+        <v>177</v>
+      </c>
+      <c r="D169">
+        <v>4250.73</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C170" t="s">
+        <v>179</v>
+      </c>
+      <c r="D170">
+        <v>2693.87</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C171" t="s">
+        <v>179</v>
+      </c>
+      <c r="D171">
+        <v>4749.85</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C172" t="s">
+        <v>181</v>
+      </c>
+      <c r="D172">
+        <v>2736.42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C173" t="s">
+        <v>181</v>
+      </c>
+      <c r="D173">
+        <v>4841.25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C174" t="s">
+        <v>183</v>
+      </c>
+      <c r="D174">
+        <v>2842.28</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C175" t="s">
+        <v>183</v>
+      </c>
+      <c r="D175">
+        <v>4841.87</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C176" t="s">
+        <v>185</v>
+      </c>
+      <c r="D176">
+        <v>2820.97</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C177" t="s">
+        <v>185</v>
+      </c>
+      <c r="D177">
+        <v>5300.35</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C178" t="s">
+        <v>187</v>
+      </c>
+      <c r="D178">
+        <v>2851.78</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C179" t="s">
+        <v>187</v>
+      </c>
+      <c r="D179">
+        <v>5300.45</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C180" t="s">
+        <v>189</v>
+      </c>
+      <c r="D180">
+        <v>2858.92</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C181" t="s">
+        <v>189</v>
+      </c>
+      <c r="D181">
+        <v>5301</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C182" t="s">
+        <v>191</v>
+      </c>
+      <c r="D182">
+        <v>2958.86</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C183" t="s">
+        <v>191</v>
+      </c>
+      <c r="D183">
+        <v>6599.57</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C184" t="s">
+        <v>193</v>
+      </c>
+      <c r="D184">
+        <v>3000.38</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C185" t="s">
+        <v>193</v>
+      </c>
+      <c r="D185">
+        <v>7000.11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C186" t="s">
+        <v>195</v>
+      </c>
+      <c r="D186">
+        <v>3072.48</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C187" t="s">
+        <v>195</v>
+      </c>
+      <c r="D187">
+        <v>6599.51</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C188" t="s">
+        <v>197</v>
+      </c>
+      <c r="D188">
+        <v>3092.62</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C189" t="s">
+        <v>197</v>
+      </c>
+      <c r="D189">
+        <v>7000.54</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C190" t="s">
         <v>199</v>
       </c>
-      <c r="D96">
+      <c r="D190">
+        <v>3092.88</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C191" t="s">
+        <v>199</v>
+      </c>
+      <c r="D191">
         <v>7000.74</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="192" spans="1:11">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C192" t="s">
         <v>201</v>
       </c>
-      <c r="D97">
+      <c r="D192">
+        <v>3092.21</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>200</v>
+      </c>
+      <c r="C193" t="s">
+        <v>201</v>
+      </c>
+      <c r="D193">
         <v>7000.78</v>
       </c>
     </row>

--- a/storage/files/dam/generate/IEX/ratesheetgraph/2018/09_Sep/19/mhindra.xlsx
+++ b/storage/files/dam/generate/IEX/ratesheetgraph/2018/09_Sep/19/mhindra.xlsx
@@ -1109,10 +1109,10 @@
                   <c:v>3159.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3092.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6400.89</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3092.89</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7100.47</c:v>
@@ -1133,16 +1133,16 @@
                   <c:v>3098</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>8050.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3310.67</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>8050.15</c:v>
-                </c:pt>
                 <c:pt idx="12">
+                  <c:v>8250.42</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>3499.04</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8250.42</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>8250.299999999999</c:v>
@@ -1157,10 +1157,10 @@
                   <c:v>4250.41</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>4250.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>8100.23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4250.7</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>8350.120000000001</c:v>
@@ -1181,16 +1181,16 @@
                   <c:v>4910.14</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>9000.440000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>5310.47</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>9000.440000000001</c:v>
-                </c:pt>
                 <c:pt idx="28">
+                  <c:v>9250.639999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>5700.48</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9250.639999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>9943.559999999999</c:v>
@@ -1205,10 +1205,10 @@
                   <c:v>5999.73</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>5999.84</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>10393.42</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5999.84</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>10050.31</c:v>
@@ -1229,16 +1229,16 @@
                   <c:v>5627.33</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>8400.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>5313.92</c:v>
                 </c:pt>
-                <c:pt idx="43">
-                  <c:v>8400.5</c:v>
-                </c:pt>
                 <c:pt idx="44">
+                  <c:v>8000.67</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>4354.22</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>8000.67</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>5989.74</c:v>
@@ -1253,10 +1253,10 @@
                   <c:v>3069.7</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>3034.3</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>5069.99</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3034.3</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>5102.41</c:v>
@@ -1277,16 +1277,16 @@
                   <c:v>2903.48</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>5989.21</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>2889.76</c:v>
                 </c:pt>
-                <c:pt idx="59">
-                  <c:v>5989.21</c:v>
-                </c:pt>
                 <c:pt idx="60">
+                  <c:v>6469.01</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>2629.92</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6469.01</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>6599.3</c:v>
@@ -1301,10 +1301,10 @@
                   <c:v>2800.59</c:v>
                 </c:pt>
                 <c:pt idx="66">
+                  <c:v>2873.69</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>8550.440000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2873.69</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>8550.639999999999</c:v>
@@ -1325,16 +1325,16 @@
                   <c:v>2781.03</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>7000.76</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>2733.98</c:v>
                 </c:pt>
-                <c:pt idx="75">
-                  <c:v>7000.76</c:v>
-                </c:pt>
                 <c:pt idx="76">
+                  <c:v>5989.67</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>2710.56</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5989.67</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>5500.76</c:v>
@@ -1349,10 +1349,10 @@
                   <c:v>2609.98</c:v>
                 </c:pt>
                 <c:pt idx="82">
+                  <c:v>2609.64</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>6599.96</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2609.64</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>5989.48</c:v>
@@ -1373,16 +1373,16 @@
                   <c:v>2724.65</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>8730.82</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>2711.51</c:v>
                 </c:pt>
-                <c:pt idx="91">
-                  <c:v>8730.82</c:v>
-                </c:pt>
                 <c:pt idx="92">
+                  <c:v>8730.209999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>2721.37</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>8730.209999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>8730.5</c:v>
@@ -1906,7 +1906,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>6400.89</v>
+        <v>3092.89</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1920,7 +1920,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>3092.89</v>
+        <v>6400.89</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2018,7 +2018,7 @@
         <v>20</v>
       </c>
       <c r="D12">
-        <v>3310.67</v>
+        <v>8050.15</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2032,7 +2032,7 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>8050.15</v>
+        <v>3310.67</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2046,7 +2046,7 @@
         <v>22</v>
       </c>
       <c r="D14">
-        <v>3499.04</v>
+        <v>8250.42</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2060,7 +2060,7 @@
         <v>22</v>
       </c>
       <c r="D15">
-        <v>8250.42</v>
+        <v>3499.04</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2130,7 +2130,7 @@
         <v>28</v>
       </c>
       <c r="D20">
-        <v>8100.23</v>
+        <v>4250.7</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2144,7 +2144,7 @@
         <v>28</v>
       </c>
       <c r="D21">
-        <v>4250.7</v>
+        <v>8100.23</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2242,7 +2242,7 @@
         <v>36</v>
       </c>
       <c r="D28">
-        <v>5310.47</v>
+        <v>9000.440000000001</v>
       </c>
       <c r="K28" t="s">
         <v>37</v>
@@ -2259,7 +2259,7 @@
         <v>36</v>
       </c>
       <c r="D29">
-        <v>9000.440000000001</v>
+        <v>5310.47</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2273,7 +2273,7 @@
         <v>39</v>
       </c>
       <c r="D30">
-        <v>5700.48</v>
+        <v>9250.639999999999</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2287,7 +2287,7 @@
         <v>39</v>
       </c>
       <c r="D31">
-        <v>9250.639999999999</v>
+        <v>5700.48</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2357,7 +2357,7 @@
         <v>45</v>
       </c>
       <c r="D36">
-        <v>10393.42</v>
+        <v>5999.84</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2371,7 +2371,7 @@
         <v>45</v>
       </c>
       <c r="D37">
-        <v>5999.84</v>
+        <v>10393.42</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2469,7 +2469,7 @@
         <v>53</v>
       </c>
       <c r="D44">
-        <v>5313.92</v>
+        <v>8400.5</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2483,7 +2483,7 @@
         <v>53</v>
       </c>
       <c r="D45">
-        <v>8400.5</v>
+        <v>5313.92</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2497,7 +2497,7 @@
         <v>55</v>
       </c>
       <c r="D46">
-        <v>4354.22</v>
+        <v>8000.67</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2511,7 +2511,7 @@
         <v>55</v>
       </c>
       <c r="D47">
-        <v>8000.67</v>
+        <v>4354.22</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2581,7 +2581,7 @@
         <v>61</v>
       </c>
       <c r="D52">
-        <v>5069.99</v>
+        <v>3034.3</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2595,7 +2595,7 @@
         <v>61</v>
       </c>
       <c r="D53">
-        <v>3034.3</v>
+        <v>5069.99</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2693,7 +2693,7 @@
         <v>69</v>
       </c>
       <c r="D60">
-        <v>2889.76</v>
+        <v>5989.21</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2707,7 +2707,7 @@
         <v>69</v>
       </c>
       <c r="D61">
-        <v>5989.21</v>
+        <v>2889.76</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2721,7 +2721,7 @@
         <v>71</v>
       </c>
       <c r="D62">
-        <v>2629.92</v>
+        <v>6469.01</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2735,7 +2735,7 @@
         <v>71</v>
       </c>
       <c r="D63">
-        <v>6469.01</v>
+        <v>2629.92</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2805,7 +2805,7 @@
         <v>77</v>
       </c>
       <c r="D68">
-        <v>8550.440000000001</v>
+        <v>2873.69</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2819,7 +2819,7 @@
         <v>77</v>
       </c>
       <c r="D69">
-        <v>2873.69</v>
+        <v>8550.440000000001</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2917,7 +2917,7 @@
         <v>85</v>
       </c>
       <c r="D76">
-        <v>2733.98</v>
+        <v>7000.76</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2931,7 +2931,7 @@
         <v>85</v>
       </c>
       <c r="D77">
-        <v>7000.76</v>
+        <v>2733.98</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2945,7 +2945,7 @@
         <v>87</v>
       </c>
       <c r="D78">
-        <v>2710.56</v>
+        <v>5989.67</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2959,7 +2959,7 @@
         <v>87</v>
       </c>
       <c r="D79">
-        <v>5989.67</v>
+        <v>2710.56</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3029,7 +3029,7 @@
         <v>93</v>
       </c>
       <c r="D84">
-        <v>6599.96</v>
+        <v>2609.64</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3043,7 +3043,7 @@
         <v>93</v>
       </c>
       <c r="D85">
-        <v>2609.64</v>
+        <v>6599.96</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3141,7 +3141,7 @@
         <v>101</v>
       </c>
       <c r="D92">
-        <v>2711.51</v>
+        <v>8730.82</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3155,7 +3155,7 @@
         <v>101</v>
       </c>
       <c r="D93">
-        <v>8730.82</v>
+        <v>2711.51</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3169,7 +3169,7 @@
         <v>103</v>
       </c>
       <c r="D94">
-        <v>2721.37</v>
+        <v>8730.209999999999</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3183,7 +3183,7 @@
         <v>103</v>
       </c>
       <c r="D95">
-        <v>8730.209999999999</v>
+        <v>2721.37</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3253,7 +3253,7 @@
         <v>109</v>
       </c>
       <c r="D100">
-        <v>7510.64</v>
+        <v>2781.92</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3267,7 +3267,7 @@
         <v>109</v>
       </c>
       <c r="D101">
-        <v>2781.92</v>
+        <v>7510.64</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3365,7 +3365,7 @@
         <v>117</v>
       </c>
       <c r="D108">
-        <v>2710.96</v>
+        <v>6599.62</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -3379,7 +3379,7 @@
         <v>117</v>
       </c>
       <c r="D109">
-        <v>6599.62</v>
+        <v>2710.96</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -3393,7 +3393,7 @@
         <v>119</v>
       </c>
       <c r="D110">
-        <v>2710.28</v>
+        <v>6469.17</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -3407,7 +3407,7 @@
         <v>119</v>
       </c>
       <c r="D111">
-        <v>6469.17</v>
+        <v>2710.28</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -3477,7 +3477,7 @@
         <v>125</v>
       </c>
       <c r="D116">
-        <v>5500.05</v>
+        <v>2781.15</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -3491,7 +3491,7 @@
         <v>125</v>
       </c>
       <c r="D117">
-        <v>2781.15</v>
+        <v>5500.05</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -3589,7 +3589,7 @@
         <v>133</v>
       </c>
       <c r="D124">
-        <v>2889.82</v>
+        <v>5102.25</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -3603,7 +3603,7 @@
         <v>133</v>
       </c>
       <c r="D125">
-        <v>5102.25</v>
+        <v>2889.82</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -3617,7 +3617,7 @@
         <v>135</v>
       </c>
       <c r="D126">
-        <v>2781.55</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -3631,7 +3631,7 @@
         <v>135</v>
       </c>
       <c r="D127">
-        <v>5102</v>
+        <v>2781.55</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -3701,7 +3701,7 @@
         <v>141</v>
       </c>
       <c r="D132">
-        <v>6469.42</v>
+        <v>3044.36</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -3715,7 +3715,7 @@
         <v>141</v>
       </c>
       <c r="D133">
-        <v>3044.36</v>
+        <v>6469.42</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -3813,7 +3813,7 @@
         <v>149</v>
       </c>
       <c r="D140">
-        <v>3000.33</v>
+        <v>6599.46</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -3827,7 +3827,7 @@
         <v>149</v>
       </c>
       <c r="D141">
-        <v>6599.46</v>
+        <v>3000.33</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -3841,7 +3841,7 @@
         <v>151</v>
       </c>
       <c r="D142">
-        <v>2781.05</v>
+        <v>5102.57</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -3855,7 +3855,7 @@
         <v>151</v>
       </c>
       <c r="D143">
-        <v>5102.57</v>
+        <v>2781.05</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -3869,7 +3869,7 @@
         <v>153</v>
       </c>
       <c r="D144">
-        <v>2569.41</v>
+        <v>5000.45</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -3883,7 +3883,7 @@
         <v>153</v>
       </c>
       <c r="D145">
-        <v>5000.45</v>
+        <v>2569.41</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -3897,7 +3897,7 @@
         <v>155</v>
       </c>
       <c r="D146">
-        <v>2712.15</v>
+        <v>5000.09</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -3911,7 +3911,7 @@
         <v>155</v>
       </c>
       <c r="D147">
-        <v>5000.09</v>
+        <v>2712.15</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -3925,7 +3925,7 @@
         <v>157</v>
       </c>
       <c r="D148">
-        <v>2681.41</v>
+        <v>5000.68</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -3939,7 +3939,7 @@
         <v>157</v>
       </c>
       <c r="D149">
-        <v>5000.68</v>
+        <v>2681.41</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -3953,7 +3953,7 @@
         <v>159</v>
       </c>
       <c r="D150">
-        <v>2705.71</v>
+        <v>5500.02</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -3967,7 +3967,7 @@
         <v>159</v>
       </c>
       <c r="D151">
-        <v>5500.02</v>
+        <v>2705.71</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -3981,7 +3981,7 @@
         <v>161</v>
       </c>
       <c r="D152">
-        <v>2701.96</v>
+        <v>5200.91</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -3995,7 +3995,7 @@
         <v>161</v>
       </c>
       <c r="D153">
-        <v>5200.91</v>
+        <v>2701.96</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -4009,7 +4009,7 @@
         <v>163</v>
       </c>
       <c r="D154">
-        <v>2572.65</v>
+        <v>4841.61</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -4023,7 +4023,7 @@
         <v>163</v>
       </c>
       <c r="D155">
-        <v>4841.61</v>
+        <v>2572.65</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -4037,7 +4037,7 @@
         <v>165</v>
       </c>
       <c r="D156">
-        <v>2569.31</v>
+        <v>4841.2</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -4051,7 +4051,7 @@
         <v>165</v>
       </c>
       <c r="D157">
-        <v>4841.2</v>
+        <v>2569.31</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -4065,7 +4065,7 @@
         <v>167</v>
       </c>
       <c r="D158">
-        <v>2525.9</v>
+        <v>4148.66</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -4079,7 +4079,7 @@
         <v>167</v>
       </c>
       <c r="D159">
-        <v>4148.66</v>
+        <v>2525.9</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -4093,7 +4093,7 @@
         <v>169</v>
       </c>
       <c r="D160">
-        <v>2439.46</v>
+        <v>4087.83</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -4107,7 +4107,7 @@
         <v>169</v>
       </c>
       <c r="D161">
-        <v>4087.83</v>
+        <v>2439.46</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -4121,7 +4121,7 @@
         <v>171</v>
       </c>
       <c r="D162">
-        <v>2572.11</v>
+        <v>4149.48</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -4135,7 +4135,7 @@
         <v>171</v>
       </c>
       <c r="D163">
-        <v>4149.48</v>
+        <v>2572.11</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -4149,7 +4149,7 @@
         <v>173</v>
       </c>
       <c r="D164">
-        <v>2572.2</v>
+        <v>4157.11</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -4163,7 +4163,7 @@
         <v>173</v>
       </c>
       <c r="D165">
-        <v>4157.11</v>
+        <v>2572.2</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -4177,7 +4177,7 @@
         <v>175</v>
       </c>
       <c r="D166">
-        <v>2659.36</v>
+        <v>4202.81</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -4191,7 +4191,7 @@
         <v>175</v>
       </c>
       <c r="D167">
-        <v>4202.81</v>
+        <v>2659.36</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -4205,7 +4205,7 @@
         <v>177</v>
       </c>
       <c r="D168">
-        <v>2700.2</v>
+        <v>4250.73</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -4219,7 +4219,7 @@
         <v>177</v>
       </c>
       <c r="D169">
-        <v>4250.73</v>
+        <v>2700.2</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -4233,7 +4233,7 @@
         <v>179</v>
       </c>
       <c r="D170">
-        <v>2693.87</v>
+        <v>4749.85</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -4247,7 +4247,7 @@
         <v>179</v>
       </c>
       <c r="D171">
-        <v>4749.85</v>
+        <v>2693.87</v>
       </c>
     </row>
     <row r="172" spans="1:11">
